--- a/data/trans_bre/P19-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P19-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,32 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,32</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>14,57%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,23%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,2%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-4,49; 10,24</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-3,62; 12,21</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-5,47; 10,06</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-19,14; 57,56</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,49; 45,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,14; 30,69</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,24</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,03</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,71%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,23%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,3%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,02; 11,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,64; 6,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,71; 9,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,69; 7,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,07; 46,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,79; 30,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,91; 37,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,25; 37,92</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,9</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,66</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,85</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,4%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,18%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,06%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,26; 12,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,91; 20,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,28; 8,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,81; 15,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,74; 69,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,3; 102,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,77; 33,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,81; 91,27</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,52</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,81</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,65%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,68%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,33%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,75; 13,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,75; 5,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,02; 13,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,38; 13,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,58; 55,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,74; 23,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,11; 48,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,97; 40,74</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,6</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,22</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,43</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,49</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,74%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,03%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,57%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,42%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,61; 5,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,35; 21,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,52; 17,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,63; 10,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,01; 18,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,01; 132,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,15; 134,79</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,44; 119,71</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,76</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,61</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,71</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>75,31%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,53%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,72%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,59%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,04; 21,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,6; 7,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,5; 14,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,43; 10,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,48; 135,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,25; 29,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,31; 45,23</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,85; 52,91</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,21</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,24</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,95</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,91%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,97%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,73%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,07%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,01; 14,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,11; 14,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,95; 14,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,23; 6,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,12; 56,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,95; 70,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,82; 58,25</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,59; 20,48</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,77</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,45</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,74</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,2</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,76%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,74%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,53%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,58%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,86; 10,5</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,27; 12,39</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,53; 8,15</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,88; 10,21</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,35; 56,04</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,77; 59,1</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,65; 30,23</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,17; 63,64</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,47</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,66</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,0%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,96%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,85%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,01%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,14; 8,52</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,25; 7,72</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,11; 7,8</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,79; 6,67</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,76; 35,79</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,91; 32,72</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,24; 28,23</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,52; 27,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>6,43%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,34; 8,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 10,06</t>
+          <t>-6,11; 10,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,95; 36,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-13,14; 30,69</t>
+          <t>-14,31; 32,19</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>9,89%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 7,79</t>
+          <t>-3,84; 8,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-13,25; 37,92</t>
+          <t>-13,34; 39,16</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,85</t>
+          <t>9,97</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>48,06%</t>
+          <t>48,63%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,81; 15,69</t>
+          <t>3,9; 15,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,81; 91,27</t>
+          <t>15,66; 93,45</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,81</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>-2,6%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>12,33%</t>
+          <t>7,02%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 5,67</t>
+          <t>-6,85; 6,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 13,77</t>
+          <t>-17,46; 15,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,74; 23,7</t>
+          <t>-23,2; 28,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 40,74</t>
+          <t>-40,21; 44,63</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>5,66</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>44,42%</t>
+          <t>46,07%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 10,82</t>
+          <t>-0,4; 10,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 119,71</t>
+          <t>-3,48; 121,03</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,71</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>19,59%</t>
+          <t>18,31%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 10,84</t>
+          <t>-2,72; 10,5</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-9,85; 52,91</t>
+          <t>-10,28; 51,81</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>-5,03</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-3,07%</t>
+          <t>-14,45%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-15,23; 6,77</t>
+          <t>-23,51; 6,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-41,59; 20,48</t>
+          <t>-61,29; 20,15</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5,2</t>
+          <t>9,48</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>27,58%</t>
+          <t>64,85%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,88; 10,21</t>
+          <t>2,48; 18,77</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,17; 63,64</t>
+          <t>12,04; 252,7</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>4,77</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>16,01%</t>
+          <t>18,99%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,79; 6,67</t>
+          <t>-0,47; 10,03</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>3,52; 27,07</t>
+          <t>-0,82; 47,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 10,24</t>
+          <t>-3,69; 10,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 8,18</t>
+          <t>-6,6; 9,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 12,21</t>
+          <t>-3,2; 12,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 10,34</t>
+          <t>-5,41; 10,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-19,14; 57,56</t>
+          <t>-16,36; 64,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-21,95; 36,08</t>
+          <t>-22,42; 39,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-11,49; 45,18</t>
+          <t>-9,56; 49,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-14,31; 32,19</t>
+          <t>-12,66; 35,3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,02; 11,87</t>
+          <t>0,51; 12,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 6,42</t>
+          <t>-4,22; 6,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 9,56</t>
+          <t>-2,1; 9,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 8,02</t>
+          <t>-3,83; 8,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,07; 46,65</t>
+          <t>1,31; 46,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-16,79; 30,24</t>
+          <t>-15,76; 28,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 37,41</t>
+          <t>-7,0; 37,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-13,34; 39,16</t>
+          <t>-13,68; 40,23</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 12,89</t>
+          <t>-0,65; 12,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,91; 20,33</t>
+          <t>5,64; 19,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 8,5</t>
+          <t>-5,83; 8,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,9; 15,74</t>
+          <t>3,8; 15,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 69,06</t>
+          <t>-2,63; 69,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,3; 102,18</t>
+          <t>21,4; 102,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-15,77; 33,09</t>
+          <t>-17,32; 30,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,66; 93,45</t>
+          <t>15,61; 92,99</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 13,08</t>
+          <t>-0,49; 12,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 6,46</t>
+          <t>-7,88; 5,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 13,28</t>
+          <t>0,03; 13,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,46; 15,38</t>
+          <t>-14,83; 16,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 55,62</t>
+          <t>-1,64; 55,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,2; 28,18</t>
+          <t>-25,6; 23,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 48,56</t>
+          <t>-0,28; 51,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-40,21; 44,63</t>
+          <t>-34,99; 46,15</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,61; 5,35</t>
+          <t>-13,53; 4,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,35; 21,06</t>
+          <t>4,47; 22,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,52; 17,19</t>
+          <t>1,89; 16,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 10,95</t>
+          <t>0,25; 11,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-35,01; 18,81</t>
+          <t>-35,77; 15,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,01; 132,5</t>
+          <t>16,96; 147,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,15; 134,79</t>
+          <t>7,92; 136,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 121,03</t>
+          <t>0,79; 125,58</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,04; 21,64</t>
+          <t>7,67; 22,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 7,61</t>
+          <t>-8,78; 7,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 14,2</t>
+          <t>-3,56; 12,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 10,5</t>
+          <t>-2,91; 10,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>29,48; 135,88</t>
+          <t>32,39; 136,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-24,25; 29,22</t>
+          <t>-24,78; 29,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 45,23</t>
+          <t>-9,47; 39,4</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-10,28; 51,81</t>
+          <t>-10,74; 54,64</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,01; 14,59</t>
+          <t>3,82; 14,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,11; 14,82</t>
+          <t>4,27; 13,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,95; 14,41</t>
+          <t>3,45; 14,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-23,51; 6,6</t>
+          <t>-21,4; 6,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13,12; 56,89</t>
+          <t>11,7; 53,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>14,95; 70,38</t>
+          <t>15,96; 63,21</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,82; 58,25</t>
+          <t>10,66; 55,95</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-61,29; 20,15</t>
+          <t>-57,34; 20,6</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,86; 10,5</t>
+          <t>1,45; 10,33</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,27; 12,39</t>
+          <t>3,14; 12,21</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 8,15</t>
+          <t>-1,04; 8,62</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,48; 18,77</t>
+          <t>2,61; 18,62</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,35; 56,04</t>
+          <t>5,98; 54,43</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>12,77; 59,1</t>
+          <t>12,68; 58,25</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 30,23</t>
+          <t>-3,23; 31,53</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>12,04; 252,7</t>
+          <t>12,28; 272,05</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,14; 8,52</t>
+          <t>4,39; 8,56</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,25; 7,72</t>
+          <t>3,34; 8,05</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,11; 7,8</t>
+          <t>3,17; 7,84</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 10,03</t>
+          <t>-0,15; 10,45</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>15,76; 35,79</t>
+          <t>17,09; 35,84</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>12,91; 32,72</t>
+          <t>12,85; 34,15</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>10,24; 28,23</t>
+          <t>10,38; 28,27</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 47,5</t>
+          <t>0,62; 49,22</t>
         </is>
       </c>
     </row>
